--- a/VARIAÇÃO ÍNDICES/AGF_cotação.xlsx
+++ b/VARIAÇÃO ÍNDICES/AGF_cotação.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Attributes</t>
   </si>
@@ -25,100 +25,103 @@
     <t>Close</t>
   </si>
   <si>
+    <t>TTEN3.SA</t>
+  </si>
+  <si>
+    <t>ABEV3.SA</t>
+  </si>
+  <si>
+    <t>ARZZ3.SA</t>
+  </si>
+  <si>
+    <t>ARML3.SA</t>
+  </si>
+  <si>
+    <t>ASAI3.SA</t>
+  </si>
+  <si>
+    <t>SOJA3.SA</t>
+  </si>
+  <si>
+    <t>AGRO3.SA</t>
+  </si>
+  <si>
+    <t>BRFS3.SA</t>
+  </si>
+  <si>
+    <t>CAML3.SA</t>
+  </si>
+  <si>
+    <t>CRFB3.SA</t>
+  </si>
+  <si>
+    <t>CSAN3.SA</t>
+  </si>
+  <si>
+    <t>DXCO3.SA</t>
+  </si>
+  <si>
+    <t>GMAT3.SA</t>
+  </si>
+  <si>
+    <t>HBSA3.SA</t>
+  </si>
+  <si>
+    <t>RANI3.SA</t>
+  </si>
+  <si>
+    <t>JALL3.SA</t>
+  </si>
+  <si>
+    <t>JBSS3.SA</t>
+  </si>
+  <si>
+    <t>KEPL3.SA</t>
+  </si>
+  <si>
+    <t>KLBN11.SA</t>
+  </si>
+  <si>
+    <t>MDIA3.SA</t>
+  </si>
+  <si>
+    <t>MRFG3.SA</t>
+  </si>
+  <si>
+    <t>BEEF3.SA</t>
+  </si>
+  <si>
+    <t>PCAR3.SA</t>
+  </si>
+  <si>
     <t>RAIZ4.SA</t>
   </si>
   <si>
+    <t>RAPT4.SA</t>
+  </si>
+  <si>
+    <t>RCSL3.SA</t>
+  </si>
+  <si>
+    <t>RAIL3.SA</t>
+  </si>
+  <si>
     <t>SMTO3.SA</t>
   </si>
   <si>
+    <t>SLCE3.SA</t>
+  </si>
+  <si>
     <t>SUZB3.SA</t>
   </si>
   <si>
-    <t>RANI3.SA</t>
-  </si>
-  <si>
-    <t>BEEF3.SA</t>
-  </si>
-  <si>
-    <t>MRFG3.SA</t>
-  </si>
-  <si>
-    <t>CSAN3.SA</t>
-  </si>
-  <si>
-    <t>AGRO3.SA</t>
-  </si>
-  <si>
-    <t>KLBN11.SA</t>
-  </si>
-  <si>
-    <t>DXCO3.SA</t>
-  </si>
-  <si>
-    <t>HBSA3.SA</t>
-  </si>
-  <si>
-    <t>SOJA3.SA</t>
-  </si>
-  <si>
-    <t>GMAT3.SA</t>
-  </si>
-  <si>
-    <t>RAIL3.SA</t>
-  </si>
-  <si>
-    <t>BRFS3.SA</t>
-  </si>
-  <si>
-    <t>KEPL3.SA</t>
-  </si>
-  <si>
-    <t>JBSS3.SA</t>
-  </si>
-  <si>
-    <t>TTEN3.SA</t>
-  </si>
-  <si>
-    <t>CAML3.SA</t>
-  </si>
-  <si>
-    <t>CRFB3.SA</t>
-  </si>
-  <si>
-    <t>PCAR3.SA</t>
-  </si>
-  <si>
-    <t>RAPT4.SA</t>
-  </si>
-  <si>
-    <t>JALL3.SA</t>
-  </si>
-  <si>
-    <t>ARML3.SA</t>
+    <t>TUPY3.SA</t>
   </si>
   <si>
     <t>VAMO3.SA</t>
   </si>
   <si>
-    <t>RCSL3.SA</t>
-  </si>
-  <si>
-    <t>TUPY3.SA</t>
-  </si>
-  <si>
-    <t>SLCE3.SA</t>
-  </si>
-  <si>
-    <t>ABEV3.SA</t>
-  </si>
-  <si>
-    <t>ARZZ3.SA</t>
-  </si>
-  <si>
-    <t>MDIA3.SA</t>
-  </si>
-  <si>
-    <t>ASAI3.SA</t>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -482,316 +485,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44720</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>-4.26</v>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>-4.14</v>
+    <row r="3" spans="1:33">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
+    <row r="4" spans="1:33">
+      <c r="A4" s="2">
+        <v>44722</v>
+      </c>
+      <c r="B4">
+        <v>-2.27</v>
       </c>
       <c r="C4">
-        <v>-3.67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>-3.21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>-2.58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>-2.44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>-2.09</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>-2.07</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>-1.98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>-1.91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>-1.73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
+        <v>-0.15</v>
+      </c>
+      <c r="D4">
+        <v>-2.08</v>
+      </c>
+      <c r="E4">
+        <v>-6.79</v>
+      </c>
+      <c r="F4">
+        <v>-3.59</v>
+      </c>
+      <c r="G4">
+        <v>-2.8</v>
+      </c>
+      <c r="H4">
+        <v>-1.16</v>
+      </c>
+      <c r="I4">
+        <v>0.27</v>
+      </c>
+      <c r="J4">
+        <v>-0.78</v>
+      </c>
+      <c r="K4">
+        <v>-2.14</v>
+      </c>
+      <c r="L4">
+        <v>-1.45</v>
+      </c>
+      <c r="M4">
+        <v>-3.03</v>
+      </c>
+      <c r="N4">
+        <v>-3.1</v>
+      </c>
+      <c r="O4">
+        <v>-4.15</v>
+      </c>
+      <c r="P4">
+        <v>0.72</v>
+      </c>
+      <c r="Q4">
+        <v>1.57</v>
+      </c>
+      <c r="R4">
+        <v>0.09</v>
+      </c>
+      <c r="S4">
+        <v>-3.17</v>
+      </c>
+      <c r="T4">
+        <v>-1.97</v>
+      </c>
+      <c r="U4">
+        <v>-0.58</v>
+      </c>
+      <c r="V4">
+        <v>0.53</v>
+      </c>
+      <c r="W4">
+        <v>-0.64</v>
+      </c>
+      <c r="X4">
+        <v>-1.4</v>
+      </c>
+      <c r="Y4">
         <v>-1.66</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>-1.66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>-1.62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <v>-1.52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17">
-        <v>-1.34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18">
-        <v>-1.31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19">
-        <v>-1.23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20">
-        <v>-0.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21">
-        <v>-0.86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22">
-        <v>-0.8100000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23">
-        <v>-0.61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24">
-        <v>-0.61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25">
-        <v>-0.38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26">
-        <v>-0.14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33">
-        <v>2.1</v>
+      <c r="Z4">
+        <v>-2.1</v>
+      </c>
+      <c r="AA4">
+        <v>-11.52</v>
+      </c>
+      <c r="AB4">
+        <v>-2.62</v>
+      </c>
+      <c r="AC4">
+        <v>-2.2</v>
+      </c>
+      <c r="AD4">
+        <v>-0.96</v>
+      </c>
+      <c r="AE4">
+        <v>-0.31</v>
+      </c>
+      <c r="AF4">
+        <v>-2.16</v>
+      </c>
+      <c r="AG4">
+        <v>-4.21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A33"/>
+    <mergeCell ref="B1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
